--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2305709.31588808</v>
+        <v>2304014.457654186</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107716</v>
+        <v>1287228.184107715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9759657.474716952</v>
+        <v>9759657.47471695</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.603382851973697</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69.71841270258076</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,7 +786,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>68.21015448122992</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.51289199636497</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>100.0376190809312</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>114.6020536118652</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>57.16776090941369</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1181,7 +1181,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140.0306324445843</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,10 +1218,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>114.3223738912678</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>329.7287713721565</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237353</v>
+        <v>78.01042632207083</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G11" t="n">
         <v>387.9966247312781</v>
       </c>
       <c r="H11" t="n">
-        <v>219.0757089894177</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.85220997855045</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564836</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216084</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688865</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299425</v>
+        <v>344.7768304299426</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501014</v>
+        <v>107.1479422767768</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.61600667168358</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136539</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701493</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320202</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753015</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>329.7287713721565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
         <v>381.921775493185</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312781</v>
+        <v>50.54527104369489</v>
       </c>
       <c r="H14" t="n">
         <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.85220997855046</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.4932970392894</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>324.2866984688866</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G16" t="n">
-        <v>141.981753513654</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77081274701497</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.140612580157351</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
         <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>33.68873360173132</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G17" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V17" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y17" t="n">
         <v>303.5201632631488</v>
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572302</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530754</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002643</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307794</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263659</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342077</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T19" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V19" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X19" t="n">
-        <v>142.9918799961324</v>
+        <v>13.62384216019775</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.6130449122894</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G20" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H20" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728173</v>
@@ -2138,13 +2138,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V20" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W20" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X20" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y20" t="n">
         <v>303.5201632631488</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.6438645784054</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G22" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307798</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S22" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T22" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U22" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V22" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8052229436862</v>
+        <v>74.43718510775236</v>
       </c>
       <c r="X22" t="n">
         <v>142.9918799961324</v>
@@ -2476,16 +2476,16 @@
         <v>97.11420478903254</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D25" t="n">
-        <v>21.05870549509555</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366442</v>
+        <v>62.94911967306369</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>84.21824836927563</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D26" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E26" t="n">
-        <v>299.2125946793571</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G26" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H26" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417218</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949687</v>
       </c>
       <c r="T26" t="n">
         <v>130.0828834728174</v>
@@ -2621,7 +2621,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.1142047890326</v>
+        <v>97.11420478903256</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572314</v>
+        <v>84.52904570572309</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530766</v>
+        <v>65.89769762530761</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366447</v>
+        <v>63.71618725366443</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002655</v>
+        <v>62.7032726300265</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927568</v>
+        <v>84.21824836927564</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307807</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263669</v>
+        <v>41.00730760263664</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342087</v>
+        <v>47.14097617342083</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525618</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T28" t="n">
         <v>140.7202764876419</v>
@@ -2773,13 +2773,13 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W28" t="n">
-        <v>203.8052229436863</v>
+        <v>144.5670679208292</v>
       </c>
       <c r="X28" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.498840123253942</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949687</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728165</v>
       </c>
       <c r="U29" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W29" t="n">
         <v>266.5231933245083</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903253</v>
+        <v>97.11420478903256</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.52904570572309</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530759</v>
+        <v>65.89769762530761</v>
       </c>
       <c r="E31" t="n">
-        <v>63.7161872536644</v>
+        <v>63.71618725366443</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002648</v>
+        <v>62.7032726300265</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927561</v>
+        <v>84.21824836927564</v>
       </c>
       <c r="H31" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263665</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342083</v>
       </c>
       <c r="S31" t="n">
         <v>122.9138237525617</v>
@@ -3004,19 +3004,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V31" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.02788582897942</v>
+        <v>6.498840123255444</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3187,13 @@
         <v>97.11420478903254</v>
       </c>
       <c r="C34" t="n">
-        <v>84.52904570572308</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>65.8976976253076</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366442</v>
+        <v>18.87719512345326</v>
       </c>
       <c r="F34" t="n">
         <v>62.70327263002649</v>
@@ -3247,7 +3247,7 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W34" t="n">
-        <v>74.4371851077521</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X34" t="n">
         <v>142.9918799961324</v>
@@ -3275,16 +3275,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G35" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H35" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417206</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W35" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X35" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y35" t="n">
         <v>303.5201632631488</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572302</v>
       </c>
       <c r="D37" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002643</v>
       </c>
       <c r="G37" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H37" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T37" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W37" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X37" t="n">
-        <v>13.62384216019713</v>
+        <v>13.62384216019979</v>
       </c>
       <c r="Y37" t="n">
         <v>135.86687795919</v>
@@ -3503,7 +3503,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D38" t="n">
         <v>271.9652662277782</v>
@@ -3515,13 +3515,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H38" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417201</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T38" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U38" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W38" t="n">
         <v>266.5231933245083</v>
@@ -3569,7 +3569,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I39" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S39" t="n">
         <v>148.3099331995005</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903253</v>
+        <v>8.753474555733916</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572306</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530759</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E40" t="n">
-        <v>63.7161872536644</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002648</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927561</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H40" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S40" t="n">
         <v>122.9138237525617</v>
@@ -3715,19 +3715,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.498840123255754</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C41" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
         <v>271.9652662277782</v>
@@ -3758,7 +3758,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U41" t="n">
         <v>168.4397301121053</v>
@@ -3806,7 +3806,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I42" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S42" t="n">
         <v>148.3099331995005</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572308</v>
+        <v>18.87719512345175</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245847043036897</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H43" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S43" t="n">
         <v>122.9138237525617</v>
@@ -3964,7 +3964,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
         <v>271.9652662277782</v>
@@ -3989,13 +3989,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T44" t="n">
         <v>130.0828834728174</v>
@@ -4043,7 +4043,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I45" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S45" t="n">
         <v>148.3099331995005</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D46" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S46" t="n">
         <v>122.9138237525617</v>
@@ -4195,13 +4195,13 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W46" t="n">
-        <v>74.43718510775165</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>132.9183000069457</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>946.2853554434458</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>735.153972022996</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.827050448935</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C3" t="n">
-        <v>203.827050448935</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D3" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>90.45791485651436</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>411.587349213889</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.827050448935</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="4">
@@ -4465,16 +4465,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4547,16 +4547,16 @@
         <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,13 +4653,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4674,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.0600686093459</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4750,22 +4750,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5536560184564</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>104.5536560184564</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>104.5536560184564</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>848.5800101659213</v>
       </c>
       <c r="X9" t="n">
-        <v>790.6398109613051</v>
+        <v>640.7285099603885</v>
       </c>
       <c r="Y9" t="n">
-        <v>790.6398109613051</v>
+        <v>432.9682111954345</v>
       </c>
     </row>
     <row r="10">
@@ -4945,10 +4945,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1723.807860526755</v>
+        <v>1995.694049903462</v>
       </c>
       <c r="C11" t="n">
-        <v>1380.051677170713</v>
+        <v>1651.937866547421</v>
       </c>
       <c r="D11" t="n">
-        <v>1046.992312148333</v>
+        <v>1318.87850152504</v>
       </c>
       <c r="E11" t="n">
-        <v>686.4103931344582</v>
+        <v>1240.080091098706</v>
       </c>
       <c r="F11" t="n">
-        <v>686.4103931344582</v>
+        <v>854.3005198934686</v>
       </c>
       <c r="G11" t="n">
-        <v>294.4946105776116</v>
+        <v>462.3847373366219</v>
       </c>
       <c r="H11" t="n">
-        <v>73.20601563880585</v>
+        <v>169.0163287484529</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
@@ -5054,10 +5054,10 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P11" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q11" t="n">
         <v>3660.300781940293</v>
@@ -5066,25 +5066,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3660.300781940293</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T11" t="n">
-        <v>3660.300781940293</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3431.812665519602</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="V11" t="n">
-        <v>3125.956111760402</v>
+        <v>3032.909302745667</v>
       </c>
       <c r="W11" t="n">
-        <v>2798.393790074658</v>
+        <v>2705.346981059924</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.134365397948</v>
+        <v>2357.087556383214</v>
       </c>
       <c r="Y11" t="n">
-        <v>2085.201367006506</v>
+        <v>2357.087556383214</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H12" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J12" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K12" t="n">
-        <v>516.6851972600602</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L12" t="n">
-        <v>1017.137375390435</v>
+        <v>549.2569667768709</v>
       </c>
       <c r="M12" t="n">
-        <v>1585.143670960737</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N12" t="n">
-        <v>1779.117628216515</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O12" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P12" t="n">
         <v>2429.521278084463</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.7421935989038</v>
+        <v>324.8521730028774</v>
       </c>
       <c r="C13" t="n">
-        <v>469.012344255367</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="D13" t="n">
-        <v>469.012344255367</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="E13" t="n">
-        <v>346.3055842573441</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="F13" t="n">
-        <v>316.3904260031178</v>
+        <v>216.6219282788604</v>
       </c>
       <c r="G13" t="n">
-        <v>172.9745133630634</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H13" t="n">
-        <v>172.9745133630634</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965315</v>
+        <v>79.32466191965318</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420086</v>
+        <v>203.3235852420088</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895914</v>
+        <v>410.6171321895915</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475069</v>
+        <v>638.2252920475066</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183691</v>
+        <v>866.4434782183688</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897735</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392008</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q13" t="n">
         <v>1238.295262094752</v>
@@ -5224,25 +5224,25 @@
         <v>1238.295262094752</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094752</v>
+        <v>1055.7929096736</v>
       </c>
       <c r="T13" t="n">
-        <v>1037.80659377958</v>
+        <v>1055.7929096736</v>
       </c>
       <c r="U13" t="n">
-        <v>1037.80659377958</v>
+        <v>791.8462267691152</v>
       </c>
       <c r="V13" t="n">
-        <v>808.3284391580637</v>
+        <v>791.8462267691152</v>
       </c>
       <c r="W13" t="n">
-        <v>808.3284391580637</v>
+        <v>527.6353903165246</v>
       </c>
       <c r="X13" t="n">
-        <v>808.3284391580637</v>
+        <v>324.8521730028774</v>
       </c>
       <c r="Y13" t="n">
-        <v>612.7421935989038</v>
+        <v>324.8521730028774</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1821.085326367482</v>
+        <v>1936.617605271221</v>
       </c>
       <c r="C14" t="n">
-        <v>1477.32914301144</v>
+        <v>1592.861421915179</v>
       </c>
       <c r="D14" t="n">
-        <v>1144.26977798906</v>
+        <v>1259.802056892799</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.26977798906</v>
+        <v>899.2201378789248</v>
       </c>
       <c r="F14" t="n">
-        <v>758.490206783822</v>
+        <v>513.4405666736875</v>
       </c>
       <c r="G14" t="n">
-        <v>366.5744242269749</v>
+        <v>462.3847373366218</v>
       </c>
       <c r="H14" t="n">
-        <v>73.20601563880585</v>
+        <v>169.0163287484528</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
@@ -5294,7 +5294,7 @@
         <v>2994.282791219484</v>
       </c>
       <c r="P14" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q14" t="n">
         <v>3660.300781940293</v>
@@ -5303,25 +5303,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3660.300781940293</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T14" t="n">
-        <v>3660.300781940293</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U14" t="n">
-        <v>3431.812665519602</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="V14" t="n">
-        <v>3223.233577601129</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="W14" t="n">
-        <v>2895.671255915385</v>
+        <v>3011.203534819124</v>
       </c>
       <c r="X14" t="n">
-        <v>2547.411831238675</v>
+        <v>2662.944110142415</v>
       </c>
       <c r="Y14" t="n">
-        <v>2182.478832847233</v>
+        <v>2298.011111750973</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H15" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J15" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K15" t="n">
-        <v>254.8646126176074</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L15" t="n">
-        <v>388.1848488975576</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M15" t="n">
-        <v>1024.16815761173</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N15" t="n">
-        <v>1692.691065467626</v>
+        <v>2321.643591960503</v>
       </c>
       <c r="O15" t="n">
-        <v>2237.843241353388</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P15" t="n">
         <v>2637.497792942953</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.6219282788604</v>
+        <v>294.6581272766036</v>
       </c>
       <c r="C16" t="n">
-        <v>216.6219282788604</v>
+        <v>294.6581272766036</v>
       </c>
       <c r="D16" t="n">
-        <v>216.6219282788604</v>
+        <v>294.6581272766036</v>
       </c>
       <c r="E16" t="n">
-        <v>216.6219282788604</v>
+        <v>294.6581272766036</v>
       </c>
       <c r="F16" t="n">
-        <v>216.6219282788604</v>
+        <v>172.9745133630634</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880585</v>
+        <v>172.9745133630634</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880585</v>
+        <v>172.9745133630634</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J16" t="n">
         <v>79.32466191965307</v>
@@ -5458,28 +5458,28 @@
         <v>1238.295262094752</v>
       </c>
       <c r="R16" t="n">
-        <v>1236.1330271653</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S16" t="n">
-        <v>1236.1330271653</v>
+        <v>949.8287871303689</v>
       </c>
       <c r="T16" t="n">
-        <v>1035.644358850128</v>
+        <v>749.340118815197</v>
       </c>
       <c r="U16" t="n">
-        <v>1035.644358850128</v>
+        <v>715.3110949750637</v>
       </c>
       <c r="V16" t="n">
-        <v>1035.644358850128</v>
+        <v>715.3110949750637</v>
       </c>
       <c r="W16" t="n">
-        <v>771.4335223975372</v>
+        <v>451.1002585224732</v>
       </c>
       <c r="X16" t="n">
-        <v>568.65030508389</v>
+        <v>451.1002585224732</v>
       </c>
       <c r="Y16" t="n">
-        <v>373.0640595247299</v>
+        <v>451.1002585224732</v>
       </c>
     </row>
     <row r="17">
@@ -5498,19 +5498,19 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H17" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
         <v>258.9898176069164</v>
@@ -5522,7 +5522,7 @@
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
@@ -5540,19 +5540,19 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105789</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
         <v>2478.681289322391</v>
@@ -5589,22 +5589,22 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1641956615502</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K18" t="n">
-        <v>516.6851972600601</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L18" t="n">
         <v>1017.137375390435</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.120684104607</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N18" t="n">
-        <v>1847.094641360385</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O18" t="n">
         <v>2008.991663148739</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.1773711940696</v>
+        <v>550.1773711940705</v>
       </c>
       <c r="C19" t="n">
-        <v>464.7944967438442</v>
+        <v>464.7944967438451</v>
       </c>
       <c r="D19" t="n">
-        <v>398.2311658091901</v>
+        <v>398.231165809191</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044786</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842499</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H19" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683952</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
         <v>866.9687724192447</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O19" t="n">
         <v>1406.224749455342</v>
@@ -5692,7 +5692,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
@@ -5701,7 +5701,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U19" t="n">
         <v>1176.268296227434</v>
@@ -5710,13 +5710,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399501</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196144</v>
+        <v>785.5117982124769</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.1773711940696</v>
+        <v>648.2725275466286</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D20" t="n">
         <v>1308.927135646023</v>
@@ -5738,28 +5738,28 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
         <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M20" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N20" t="n">
         <v>2452.791422191916</v>
@@ -5777,10 +5777,10 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U20" t="n">
         <v>3285.318664764112</v>
@@ -5826,28 +5826,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1641956615502</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K21" t="n">
-        <v>516.6851972600601</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L21" t="n">
-        <v>864.5351077304088</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M21" t="n">
-        <v>1500.518416444581</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N21" t="n">
-        <v>2169.041324300477</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O21" t="n">
-        <v>2324.269804102277</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>483.6140402594161</v>
+        <v>550.1773711940705</v>
       </c>
       <c r="C22" t="n">
-        <v>398.2311658091908</v>
+        <v>464.7944967438451</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091908</v>
+        <v>398.231165809191</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044793</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H22" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J22" t="n">
         <v>136.5105320125876</v>
@@ -5917,19 +5917,19 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O22" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P22" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R22" t="n">
         <v>1648.165075188308</v>
@@ -5947,13 +5947,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W22" t="n">
-        <v>799.27325493995</v>
+        <v>929.9480406328128</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196143</v>
+        <v>785.5117982124769</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.597741853765</v>
+        <v>648.2725275466286</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775093</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646024</v>
       </c>
       <c r="E23" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135352</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875500001</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
@@ -5990,7 +5990,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
@@ -6017,22 +6017,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K24" t="n">
-        <v>448.7081841161897</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L24" t="n">
-        <v>949.1603622465644</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M24" t="n">
-        <v>1585.143670960737</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N24" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O24" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
         <v>2429.521278084463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419.5025855012066</v>
+        <v>419.5025855012069</v>
       </c>
       <c r="C25" t="n">
-        <v>419.5025855012066</v>
+        <v>334.1197110509816</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091909</v>
+        <v>334.1197110509816</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044793</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="G25" t="n">
         <v>185.4658039375075</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
         <v>73.20601563880587</v>
@@ -6148,19 +6148,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683945</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192441</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P25" t="n">
         <v>1611.737284042549</v>
@@ -6178,19 +6178,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399491</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196133</v>
+        <v>654.8370125196137</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537647</v>
+        <v>517.597741853765</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E26" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135342</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G26" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H26" t="n">
         <v>110.6693538551413</v>
@@ -6257,19 +6257,19 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U26" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W26" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6309,7 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L27" t="n">
-        <v>650.0054335400104</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M27" t="n">
         <v>1269.865530007199</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940707</v>
+        <v>479.339105726315</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438453</v>
+        <v>393.9562312760897</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091911</v>
+        <v>327.3929003414355</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044795</v>
+        <v>263.033115236724</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842507</v>
+        <v>199.6964762164952</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375076</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H28" t="n">
         <v>114.627538469752</v>
@@ -6385,7 +6385,7 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L28" t="n">
         <v>582.1747424683949</v>
@@ -6400,34 +6400,34 @@
         <v>1406.224749455341</v>
       </c>
       <c r="P28" t="n">
-        <v>1611.737284042548</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.782222838227</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R28" t="n">
-        <v>1648.165075188307</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.009697660467</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T28" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399485</v>
+        <v>859.1097751650576</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196127</v>
+        <v>714.6735327447218</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466289</v>
+        <v>577.4342620788732</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E29" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551413</v>
@@ -6464,7 +6464,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
@@ -6491,22 +6491,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T29" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U29" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W29" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J30" t="n">
-        <v>190.1641956615503</v>
+        <v>89.4157288984108</v>
       </c>
       <c r="K30" t="n">
-        <v>516.6851972600602</v>
+        <v>415.9367304969207</v>
       </c>
       <c r="L30" t="n">
-        <v>864.5351077304086</v>
+        <v>549.2569667768709</v>
       </c>
       <c r="M30" t="n">
-        <v>1500.518416444581</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N30" t="n">
-        <v>2169.041324300477</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O30" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P30" t="n">
         <v>2429.521278084463</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>464.7944967438449</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C31" t="n">
-        <v>464.7944967438449</v>
+        <v>464.7944967438451</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091908</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044792</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F31" t="n">
         <v>270.5347416842505</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H31" t="n">
         <v>114.627538469752</v>
@@ -6619,16 +6619,16 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K31" t="n">
         <v>317.6953254278778</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683954</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192452</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683042</v>
@@ -6637,7 +6637,7 @@
         <v>1406.224749455342</v>
       </c>
       <c r="P31" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q31" t="n">
         <v>1695.782222838229</v>
@@ -6661,10 +6661,10 @@
         <v>799.2732549399498</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196139</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.889653096403</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H32" t="n">
         <v>110.6693538551413</v>
@@ -6698,10 +6698,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6728,22 +6728,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U32" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V32" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X32" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J33" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K33" t="n">
-        <v>341.2911753664964</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L33" t="n">
-        <v>474.6114116464465</v>
+        <v>633.8822212930266</v>
       </c>
       <c r="M33" t="n">
-        <v>1110.594720360619</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N33" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O33" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P33" t="n">
         <v>2429.521278084463</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.1773711940705</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C34" t="n">
-        <v>464.7944967438451</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="D34" t="n">
-        <v>398.2311658091909</v>
+        <v>352.9392545665533</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044794</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G34" t="n">
         <v>185.4658039375075</v>
@@ -6886,7 +6886,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U34" t="n">
         <v>1176.268296227434</v>
@@ -6895,13 +6895,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W34" t="n">
-        <v>929.9480406328123</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X34" t="n">
-        <v>785.5117982124766</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y34" t="n">
-        <v>648.2725275466286</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E35" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135348</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H35" t="n">
         <v>110.6693538551413</v>
@@ -7014,22 +7014,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J36" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K36" t="n">
-        <v>341.2911753664964</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L36" t="n">
-        <v>474.6114116464465</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M36" t="n">
-        <v>1110.594720360619</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N36" t="n">
-        <v>1779.117628216515</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O36" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.1773711940704</v>
+        <v>550.17737119407</v>
       </c>
       <c r="C37" t="n">
-        <v>464.794496743845</v>
+        <v>464.7944967438448</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091909</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044793</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H37" t="n">
         <v>114.6275384697519</v>
@@ -7093,52 +7093,52 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.13711649923</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399489</v>
+        <v>799.2732549399507</v>
       </c>
       <c r="X37" t="n">
-        <v>785.5117982124771</v>
+        <v>785.5117982124764</v>
       </c>
       <c r="Y37" t="n">
-        <v>648.2725275466285</v>
+        <v>648.2725275466281</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775093</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646024</v>
       </c>
       <c r="E38" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F38" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135349</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499996</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6693538551412</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I38" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J38" t="n">
         <v>258.9898176069163</v>
       </c>
       <c r="K38" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L38" t="n">
         <v>1205.679240092235</v>
@@ -7193,31 +7193,31 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q38" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R38" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S38" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T38" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U38" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V38" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W38" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="39">
@@ -7239,16 +7239,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G39" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H39" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I39" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J39" t="n">
         <v>190.1641956615503</v>
@@ -7257,16 +7257,16 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L39" t="n">
-        <v>757.2334816353615</v>
+        <v>682.5879265049371</v>
       </c>
       <c r="M39" t="n">
-        <v>1393.216790349534</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N39" t="n">
-        <v>2061.73969820543</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O39" t="n">
-        <v>2216.96817800723</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P39" t="n">
         <v>2637.497792942953</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.1773711940702</v>
+        <v>508.7558483631246</v>
       </c>
       <c r="C40" t="n">
-        <v>464.7944967438449</v>
+        <v>423.3729739128992</v>
       </c>
       <c r="D40" t="n">
-        <v>398.2311658091908</v>
+        <v>356.8096429782451</v>
       </c>
       <c r="E40" t="n">
-        <v>333.8713807044793</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842505</v>
+        <v>229.1132188533047</v>
       </c>
       <c r="G40" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H40" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I40" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N40" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P40" t="n">
         <v>1611.737284042549</v>
@@ -7360,7 +7360,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U40" t="n">
         <v>1176.268296227434</v>
@@ -7369,13 +7369,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399494</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196139</v>
+        <v>654.8370125196136</v>
       </c>
       <c r="Y40" t="n">
-        <v>648.2725275466283</v>
+        <v>517.5977418537649</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E41" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135337</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499985</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I41" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K41" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L41" t="n">
         <v>1205.679240092235</v>
@@ -7430,13 +7430,13 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q41" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R41" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S41" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T41" t="n">
         <v>3455.459806291491</v>
@@ -7445,16 +7445,16 @@
         <v>3285.318664764112</v>
       </c>
       <c r="V41" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W41" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="42">
@@ -7476,25 +7476,25 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G42" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H42" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I42" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J42" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K42" t="n">
-        <v>516.6851972600602</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L42" t="n">
-        <v>1017.137375390435</v>
+        <v>633.8822212930265</v>
       </c>
       <c r="M42" t="n">
         <v>1269.865530007199</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012066</v>
+        <v>419.5025855012061</v>
       </c>
       <c r="C43" t="n">
-        <v>334.1197110509813</v>
+        <v>400.4347116391336</v>
       </c>
       <c r="D43" t="n">
-        <v>333.8713807044793</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8713807044793</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H43" t="n">
         <v>114.627538469752</v>
       </c>
       <c r="I43" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
         <v>317.6953254278777</v>
@@ -7576,7 +7576,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
@@ -7597,22 +7597,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T43" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U43" t="n">
         <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399498</v>
+        <v>799.2732549399492</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196139</v>
+        <v>654.8370125196134</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537647</v>
+        <v>517.5977418537643</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C44" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499983</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K44" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M44" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N44" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O44" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P44" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q44" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R44" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S44" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W44" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G45" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H45" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I45" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J45" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>137.906432594863</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3586107252377</v>
+        <v>755.3167907479823</v>
       </c>
       <c r="M45" t="n">
-        <v>1274.34191943941</v>
+        <v>1391.300099462155</v>
       </c>
       <c r="N45" t="n">
-        <v>1942.864827295306</v>
+        <v>1585.274056717933</v>
       </c>
       <c r="O45" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P45" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.1773711940705</v>
+        <v>422.4809470691303</v>
       </c>
       <c r="C46" t="n">
-        <v>464.7944967438451</v>
+        <v>337.0980726189048</v>
       </c>
       <c r="D46" t="n">
-        <v>398.2311658091909</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044794</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H46" t="n">
         <v>114.627538469752</v>
       </c>
       <c r="I46" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
         <v>317.6953254278777</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M46" t="n">
         <v>866.9687724192445</v>
@@ -7840,16 +7840,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>929.9480406328128</v>
+        <v>799.2732549399493</v>
       </c>
       <c r="X46" t="n">
-        <v>785.5117982124771</v>
+        <v>654.8370125196135</v>
       </c>
       <c r="Y46" t="n">
-        <v>648.2725275466286</v>
+        <v>520.5761034216885</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>16.37344773697467</v>
       </c>
       <c r="M12" t="n">
-        <v>397.0414141097267</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>55.93358302875191</v>
       </c>
       <c r="P15" t="n">
-        <v>297.3768460680602</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>6.735900996519575</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>216.6966405963622</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>108.3111596922738</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>195.8015873723054</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>449.4189907732487</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>24.32490729683362</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>216.6966405963619</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K33" t="n">
-        <v>87.29955833221112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.8535028037987</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K36" t="n">
-        <v>87.29955833221112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>124.8754767770693</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>108.3111596922739</v>
+        <v>32.91160905548145</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>366.318739816377</v>
       </c>
       <c r="M42" t="n">
-        <v>78.57864546978951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>271.2011380090973</v>
       </c>
       <c r="P45" t="n">
-        <v>44.67607654515086</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.9656735016645</v>
       </c>
       <c r="F11" t="n">
-        <v>381.921775493185</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71.35901551286952</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855042</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638752</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171957</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8777099334108</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>35.14460857332458</v>
       </c>
       <c r="D13" t="n">
         <v>123.6612027696859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F13" t="n">
-        <v>90.8507711027212</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574563</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77081274701499</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>104.9044813177991</v>
       </c>
       <c r="S13" t="n">
-        <v>180.67732889694</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754401</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.4513536875833</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855048</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638752</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171957</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
-        <v>96.30469118231909</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>142.2925508501014</v>
       </c>
       <c r="D16" t="n">
-        <v>123.661202769686</v>
+        <v>123.6612027696859</v>
       </c>
       <c r="E16" t="n">
         <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701499</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7638687376418</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.67732889694</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754402</v>
+        <v>227.6184824737089</v>
       </c>
       <c r="V16" t="n">
         <v>227.1833730753016</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903248</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>129.3680378359347</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.25383304690062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.47034021062712</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530757</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>129.3680378359339</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572308</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>44.83899213021205</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.7670675806007239</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>59.23815502285703</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.3680378359361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572306</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.8389921302106</v>
+        <v>129.3680378359346</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>44.83899213021115</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>129.3680378359342</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>129.3680378359353</v>
+        <v>129.3680378359326</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>88.36073023329867</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.3680378359343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.65185058227138</v>
       </c>
       <c r="D43" t="n">
-        <v>65.65185058227071</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.3680378359346</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.94857795224442</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756246.5085732515</v>
+        <v>756246.5085732518</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756246.5085732515</v>
+        <v>756246.5085732514</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858267.2098783457</v>
+        <v>858267.2098783456</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858267.2098783457</v>
+        <v>858267.2098783456</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858267.2098783456</v>
+        <v>858267.2098783457</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858267.2098783456</v>
+        <v>858267.2098783457</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="E2" t="n">
-        <v>536937.1767383461</v>
+        <v>536937.1767383454</v>
       </c>
       <c r="F2" t="n">
         <v>536937.1767383452</v>
       </c>
       <c r="G2" t="n">
-        <v>613452.7027171652</v>
+        <v>613452.7027171656</v>
       </c>
       <c r="H2" t="n">
-        <v>613452.7027171651</v>
+        <v>613452.7027171655</v>
       </c>
       <c r="I2" t="n">
-        <v>613452.7027171653</v>
+        <v>613452.7027171655</v>
       </c>
       <c r="J2" t="n">
-        <v>613452.7027171653</v>
+        <v>613452.7027171655</v>
       </c>
       <c r="K2" t="n">
         <v>613452.7027171653</v>
       </c>
       <c r="L2" t="n">
-        <v>613452.7027171656</v>
+        <v>613452.7027171652</v>
       </c>
       <c r="M2" t="n">
+        <v>613452.7027171655</v>
+      </c>
+      <c r="N2" t="n">
         <v>613452.7027171652</v>
-      </c>
-      <c r="N2" t="n">
-        <v>613452.7027171663</v>
       </c>
       <c r="O2" t="n">
         <v>613452.7027171653</v>
       </c>
       <c r="P2" t="n">
-        <v>613452.7027171655</v>
+        <v>613452.7027171657</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550272</v>
+        <v>46210.80411550267</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550272</v>
+        <v>46210.80411550269</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.674170194</v>
+        <v>167978.6741701941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>66278.56696006708</v>
+        <v>66278.56696006705</v>
       </c>
       <c r="F4" t="n">
-        <v>66278.56696006702</v>
+        <v>66278.56696006704</v>
       </c>
       <c r="G4" t="n">
-        <v>124651.230072858</v>
+        <v>124651.2300728579</v>
       </c>
       <c r="H4" t="n">
         <v>124651.2300728579</v>
@@ -26439,7 +26439,7 @@
         <v>124651.2300728579</v>
       </c>
       <c r="J4" t="n">
-        <v>124651.2300728578</v>
+        <v>124651.2300728579</v>
       </c>
       <c r="K4" t="n">
         <v>124651.2300728579</v>
@@ -26448,16 +26448,16 @@
         <v>124651.2300728579</v>
       </c>
       <c r="M4" t="n">
-        <v>124651.2300728579</v>
+        <v>124651.230072858</v>
       </c>
       <c r="N4" t="n">
-        <v>124651.2300728579</v>
+        <v>124651.2300728578</v>
       </c>
       <c r="O4" t="n">
         <v>124651.2300728579</v>
       </c>
       <c r="P4" t="n">
-        <v>124651.2300728579</v>
+        <v>124651.2300728578</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="H5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="I5" t="n">
         <v>75344.02665346203</v>
@@ -26494,7 +26494,7 @@
         <v>75344.02665346202</v>
       </c>
       <c r="K5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="L5" t="n">
         <v>75344.02665346203</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165767.6741125475</v>
+        <v>165767.6741125476</v>
       </c>
       <c r="C6" t="n">
-        <v>246537.1056440955</v>
+        <v>246537.1056440953</v>
       </c>
       <c r="D6" t="n">
-        <v>246537.1056440952</v>
+        <v>246537.1056440947</v>
       </c>
       <c r="E6" t="n">
-        <v>-291059.9607505667</v>
+        <v>-291322.7745861003</v>
       </c>
       <c r="F6" t="n">
-        <v>400170.7032387989</v>
+        <v>399907.889403266</v>
       </c>
       <c r="G6" t="n">
-        <v>367246.6418753425</v>
+        <v>367238.8797930728</v>
       </c>
       <c r="H6" t="n">
-        <v>413457.4459908452</v>
+        <v>413449.6839085753</v>
       </c>
       <c r="I6" t="n">
-        <v>413457.4459908454</v>
+        <v>413449.6839085753</v>
       </c>
       <c r="J6" t="n">
-        <v>330434.0871929181</v>
+        <v>330426.325110648</v>
       </c>
       <c r="K6" t="n">
-        <v>413457.4459908454</v>
+        <v>413449.6839085752</v>
       </c>
       <c r="L6" t="n">
-        <v>367246.6418753429</v>
+        <v>367238.8797930725</v>
       </c>
       <c r="M6" t="n">
-        <v>245478.7718206513</v>
+        <v>245471.0097383812</v>
       </c>
       <c r="N6" t="n">
-        <v>413457.4459908463</v>
+        <v>413449.6839085753</v>
       </c>
       <c r="O6" t="n">
-        <v>393494.0297920242</v>
+        <v>393486.2677097541</v>
       </c>
       <c r="P6" t="n">
-        <v>413457.4459908455</v>
+        <v>413449.6839085757</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="F2" t="n">
         <v>24.95427024852641</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="J2" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="3">
@@ -26750,10 +26750,10 @@
         <v>585.0208306634613</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
         <v>585.0208306634613</v>
@@ -26771,13 +26771,13 @@
         <v>585.0208306634613</v>
       </c>
       <c r="N3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="O3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="P3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634614</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
         <v>915.0751954850733</v>
@@ -26823,13 +26823,13 @@
         <v>915.0751954850733</v>
       </c>
       <c r="N4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="O4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437841</v>
+        <v>57.76350514437834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852641</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437839</v>
+        <v>57.76350514437836</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.060906607414</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437841</v>
+        <v>57.76350514437834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852641</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>154.522208511831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>142.265735089176</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>29.62878828644581</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>19.67822014883431</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>313.7202155910319</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>255.9619101194022</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27704,19 +27704,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>45.03159331245271</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>137.0929295490544</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>349.7082848322977</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.50255120528305</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>137.3726092696518</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852647</v>
+        <v>24.95427024852641</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="C26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="D26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="E26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="F26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="G26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="H26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="T26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="U26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="V26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="W26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="X26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="C28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="D28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="E28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="F28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="G28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="H28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="I28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="K28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="L28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="M28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="N28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="O28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="P28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="R28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="S28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="T28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="U28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="V28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="W28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="X28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.7177753929047</v>
+        <v>82.71777539290474</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290474</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290487</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
   </sheetData>
@@ -32224,28 +32224,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J17" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
         <v>396.2590089746664</v>
@@ -32254,13 +32254,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
@@ -32309,10 +32309,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J18" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
         <v>203.1953954956288</v>
@@ -32321,7 +32321,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
         <v>327.2750022406848</v>
@@ -32336,16 +32336,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S18" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I19" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N19" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O19" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P19" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R19" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S19" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,28 +32461,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N20" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
         <v>396.2590089746664</v>
@@ -32491,13 +32491,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32546,10 +32546,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
         <v>203.1953954956288</v>
@@ -32558,7 +32558,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
         <v>327.2750022406848</v>
@@ -32573,16 +32573,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N22" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O22" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P22" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33889,13 +33889,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I38" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J38" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K38" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L38" t="n">
         <v>371.1383908941676</v>
@@ -33907,10 +33907,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O38" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P38" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q38" t="n">
         <v>253.9725355871713</v>
@@ -33919,13 +33919,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S38" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T38" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I39" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J39" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K39" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L39" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M39" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N39" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O39" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P39" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q39" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R39" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S39" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T39" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,19 +34044,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H40" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I40" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K40" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L40" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M40" t="n">
         <v>165.3690849693453</v>
@@ -34071,19 +34071,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R40" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S40" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T40" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,13 +34126,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I41" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J41" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K41" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L41" t="n">
         <v>371.1383908941676</v>
@@ -34144,10 +34144,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O41" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P41" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q41" t="n">
         <v>253.9725355871713</v>
@@ -34156,13 +34156,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S41" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T41" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I42" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J42" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K42" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L42" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M42" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N42" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O42" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P42" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q42" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R42" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S42" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T42" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,19 +34281,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H43" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I43" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K43" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L43" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M43" t="n">
         <v>165.3690849693453</v>
@@ -34308,19 +34308,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R43" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S43" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T43" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,13 +34363,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I44" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J44" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K44" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L44" t="n">
         <v>371.1383908941676</v>
@@ -34381,10 +34381,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O44" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P44" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q44" t="n">
         <v>253.9725355871713</v>
@@ -34393,13 +34393,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S44" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T44" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I45" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J45" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K45" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L45" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M45" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N45" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O45" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P45" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q45" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R45" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S45" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T45" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,19 +34518,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H46" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I46" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K46" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L46" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M46" t="n">
         <v>165.3690849693453</v>
@@ -34545,19 +34545,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R46" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S46" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T46" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35021,16 +35021,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>329.8191935338484</v>
       </c>
       <c r="L12" t="n">
-        <v>505.5072506367421</v>
+        <v>151.0403530702576</v>
       </c>
       <c r="M12" t="n">
-        <v>573.7437328992947</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N12" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P12" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q12" t="n">
         <v>230.7223651180293</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734646</v>
+        <v>6.180450788734589</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993491</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591746</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M13" t="n">
         <v>229.9072321797123</v>
@@ -35586,7 +35586,7 @@
         <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701473</v>
+        <v>27.13037242701468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K15" t="n">
-        <v>65.35395652126985</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L15" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M15" t="n">
         <v>642.4073825395679</v>
@@ -35738,10 +35738,10 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209717</v>
+        <v>212.7300272729941</v>
       </c>
       <c r="P15" t="n">
-        <v>403.6914662520863</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q15" t="n">
         <v>20.64507738218018</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734575</v>
+        <v>6.180450788734589</v>
       </c>
       <c r="K16" t="n">
         <v>125.251437699349</v>
@@ -35823,7 +35823,7 @@
         <v>149.8249136305787</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701467</v>
+        <v>27.13037242701468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M18" t="n">
-        <v>642.4073825395678</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N18" t="n">
         <v>195.9332901573515</v>
       </c>
       <c r="O18" t="n">
-        <v>163.5323452407617</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P18" t="n">
         <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M19" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O19" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O20" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L21" t="n">
-        <v>351.3635459296451</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
-        <v>675.275664500905</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O21" t="n">
-        <v>156.7964442442421</v>
+        <v>265.107603936516</v>
       </c>
       <c r="P21" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437274</v>
@@ -36297,7 +36297,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K24" t="n">
-        <v>261.1555438935752</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L24" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395679</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N24" t="n">
         <v>195.9332901573515</v>
@@ -36452,7 +36452,7 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P24" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
         <v>230.7223651180293</v>
@@ -36677,10 +36677,10 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L27" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>626.1213095628167</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N27" t="n">
         <v>195.9332901573515</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311287</v>
+        <v>63.94395593311292</v>
       </c>
       <c r="K28" t="n">
         <v>183.0149428437273</v>
@@ -36762,16 +36762,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N28" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O28" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P28" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139296</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.1395757805499</v>
+        <v>16.37344773697469</v>
       </c>
       <c r="K30" t="n">
         <v>329.8191935338484</v>
       </c>
       <c r="L30" t="n">
-        <v>351.3635459296448</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M30" t="n">
         <v>642.4073825395679</v>
@@ -36926,7 +36926,7 @@
         <v>156.7964442442422</v>
       </c>
       <c r="P30" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q30" t="n">
         <v>230.7223651180293</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311292</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L31" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O31" t="n">
         <v>256.4160815881821</v>
@@ -37008,7 +37008,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>152.653514853481</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L33" t="n">
-        <v>134.666905333283</v>
+        <v>236.5204081370817</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N33" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O33" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q33" t="n">
         <v>230.7223651180293</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>152.653514853481</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L36" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M36" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N36" t="n">
-        <v>675.2756645009051</v>
+        <v>320.8087669344209</v>
       </c>
       <c r="O36" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P36" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180293</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K37" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L37" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240907</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O37" t="n">
-        <v>256.4160815881821</v>
+        <v>256.4160815881822</v>
       </c>
       <c r="P37" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K38" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L38" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746307</v>
       </c>
       <c r="M38" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N38" t="n">
         <v>627.5790040007523</v>
@@ -37558,10 +37558,10 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P38" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.9818363726262</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8191935338484</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L39" t="n">
-        <v>242.9780650255568</v>
+        <v>167.5785143887645</v>
       </c>
       <c r="M39" t="n">
-        <v>642.4073825395679</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N39" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O39" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.64507738218018</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311295</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L40" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M40" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O40" t="n">
         <v>256.4160815881821</v>
@@ -37719,7 +37719,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K41" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L41" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M41" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N41" t="n">
         <v>627.5790040007523</v>
@@ -37795,7 +37795,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P41" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999081</v>
       </c>
       <c r="Q41" t="n">
         <v>243.9818363726265</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L42" t="n">
-        <v>505.5072506367421</v>
+        <v>500.9856451496601</v>
       </c>
       <c r="M42" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N42" t="n">
-        <v>195.9332901573515</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O42" t="n">
-        <v>550.6587635209717</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7773888239633</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q42" t="n">
         <v>230.7223651180293</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K43" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L43" t="n">
         <v>267.1509263035528</v>
@@ -37956,7 +37956,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K44" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L44" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M44" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N44" t="n">
         <v>627.5790040007523</v>
@@ -38032,10 +38032,10 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P44" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.9818363726262</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>65.35395652126985</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L45" t="n">
-        <v>505.5072506367421</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M45" t="n">
-        <v>642.4073825395679</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N45" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O45" t="n">
-        <v>550.6587635209717</v>
+        <v>427.9975822533396</v>
       </c>
       <c r="P45" t="n">
-        <v>150.990696729177</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
         <v>267.1509263035528</v>
@@ -38193,7 +38193,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
